--- a/raw/2017-19pe/Busan.xlsx
+++ b/raw/2017-19pe/Busan.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SeungwooKang_1/Documents/GitHub/south-korea-election/raw/2017-19pe/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B594AD6-8675-9945-B81C-A765808A96B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="13005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,1573 +23,1573 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="335">
   <si>
     <t>중앙선거관리위원회 선거통계시스템</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개표현황</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[제19대][대통령선거][부산광역시]</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>구시군명</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>선거인수</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>투표수</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>후보자별 득표수(득표율)</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>무효
 투표수</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기권수</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>더불어민주당
 문재인</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>자유한국당
 홍준표</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>국민의당
 안철수</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>바른정당
 유승민</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정의당
 심상정</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>새누리당
 조원진</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경제애국당
 오영국</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>국민대통합당
 장성민</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>늘푸른한국당
 이재오</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>민중연합당
 김선동</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>한국국민당
 이경희</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>홍익당
 윤홍식</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>무소속
 김민찬</t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>계</t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>합계  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>2,950,224  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>2,261,633  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,950,224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,261,633</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>872,127
-(38.71)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(38.71)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>720,484
-(31.98)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(31.98)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>378,907
-(16.82)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(16.82)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>162,480
-(7.21)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(7.21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>109,329
-(4.85)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(4.85)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2,651
-(0.11)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>276
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,316
-(0.05)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>465
-(0.02)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>981
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>496
-(0.02)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,041
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2,156
-(0.09)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>2,252,709  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>8,924  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>688,591  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>중구  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>40,448  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>28,604  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.09)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,252,709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,924</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>688,591</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,604</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9,918
-(34.78)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(34.78)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10,684
-(37.47)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(37.47)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4,675
-(16.39)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(16.39)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,845
-(6.47)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(6.47)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,274
-(4.46)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(4.46)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>47
-(0.16)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11
-(0.03)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>14
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7
-(0.02)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9
-(0.03)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>18
-(0.06)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>28,509  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>95  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>11,844  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>서구  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>98,536  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>71,446  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.06)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,844</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98,536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71,446</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>24,522
-(34.46)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(34.46)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>26,360
-(37.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(37.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11,868
-(16.68)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(16.68)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4,913
-(6.90)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(6.90)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3,131
-(4.40)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(4.40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>77
-(0.10)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>70
-(0.09)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.09)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>14
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>32
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>25
-(0.03)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>51
-(0.07)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>71,148  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>298  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>27,090  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>동구  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>79,720  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>58,304  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.07)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71,148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79,720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58,304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19,606
-(33.75)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(33.75)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22,188
-(38.20)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(38.20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9,815
-(16.89)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(16.89)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3,606
-(6.20)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(6.20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2,589
-(4.45)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(4.45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>65
-(0.11)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>14
-(0.02)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>47
-(0.08)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.08)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19
-(0.03)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21
-(0.03)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>31
-(0.05)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>62
-(0.10)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>58,082  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>222  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>21,416  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>영도구  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>109,885  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>78,013  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58,082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109,885</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78,013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>30,094
-(38.75)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(38.75)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>25,345
-(32.63)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(32.63)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13,082
-(16.84)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(16.84)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5,375
-(6.92)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(6.92)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3,416
-(4.39)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(4.39)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>78
-(0.10)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>51
-(0.06)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.06)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21
-(0.02)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>46
-(0.05)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>45
-(0.05)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>82
-(0.10)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>77,659  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>354  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>31,872  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>부산진구  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>323,551  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>246,124  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,659</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>354</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,872</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산진구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>323,551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>246,124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>95,042
-(38.76)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(38.76)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>79,545
-(32.44)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(32.44)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>40,636
-(16.57)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(16.57)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16,855
-(6.87)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(6.87)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12,045
-(4.91)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(4.91)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>309
-(0.12)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>25
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>146
-(0.05)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>45
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>121
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>49
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>111
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>224
-(0.09)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>245,153  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>971  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>77,427  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>동래구  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>229,464  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>181,098  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.09)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>245,153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>971</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,427</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동래구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>229,464</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>181,098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>67,947
-(37.65)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(37.65)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>59,616
-(33.03)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(33.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>30,208
-(16.73)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(16.73)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13,211
-(7.32)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(7.32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8,812
-(4.88)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(4.88)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>196
-(0.10)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>82
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>26
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>80
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>32
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>65
-(0.03)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>169
-(0.09)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>180,469  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>629  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>48,366  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>남구  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>233,838  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>181,922  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.09)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180,469</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48,366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>233,838</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>181,922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>68,566
-(37.83)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(37.83)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>59,137
-(32.63)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(32.63)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>30,943
-(17.07)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(17.07)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13,029
-(7.19)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(7.19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8,780
-(4.84)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(4.84)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>226
-(0.12)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>27
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>98
-(0.05)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>72
-(0.03)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>29
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>92
-(0.05)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>174
-(0.09)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>181,205  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>717  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>51,916  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>북구  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>258,693  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>203,689  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.09)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>181,205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,916</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>258,693</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203,689</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>83,611
-(41.22)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(41.22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>61,175
-(30.16)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(30.16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>32,712
-(16.13)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(16.13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>14,567
-(7.18)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(7.18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9,862
-(4.86)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(4.86)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>213
-(0.10)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>24
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>124
-(0.06)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.06)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>48
-(0.02)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>93
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>39
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>95
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>233
-(0.11)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>202,796  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>893  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>55,004  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>해운대구  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>344,624  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>266,870  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202,796</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>893</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해운대구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>344,624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>266,870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102,106
-(38.39)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(38.39)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>80,904
-(30.42)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(30.42)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>48,325
-(18.17)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(18.17)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20,918
-(7.86)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(7.86)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12,573
-(4.72)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(4.72)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>428
-(0.16)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>31
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>124
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>53
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>99
-(0.03)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>51
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>115
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>225
-(0.08)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>265,952  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>918  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>77,754  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>기장군  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>124,123  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>94,393  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.08)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>265,952</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77,754</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기장군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124,123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94,393</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>39,412
-(41.90)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(41.90)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>26,556
-(28.23)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(28.23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15,909
-(16.91)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(16.91)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6,775
-(7.20)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(7.20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4,988
-(5.30)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(5.30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>107
-(0.11)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>54
-(0.05)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>43
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20
-(0.02)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>58
-(0.06)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.06)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>95
-(0.10)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>94,050  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>343  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>29,730  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>사하구  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>280,843  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>211,876  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94,050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,730</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사하구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280,843</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>211,876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>82,452
-(39.09)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(39.09)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>65,252
-(30.93)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(30.93)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>36,713
-(17.40)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(17.40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>14,958
-(7.09)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(7.09)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10,664
-(5.05)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(5.05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>225
-(0.10)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>138
-(0.06)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.06)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>66
-(0.03)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>71
-(0.03)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>63
-(0.02)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>85
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>215
-(0.10)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>210,927  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>949  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>68,967  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>금정구  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>209,881  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>164,127  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210,927</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>949</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,967</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금정구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209,881</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>60,169
-(36.82)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(36.82)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>54,418
-(33.30)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(33.30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>26,729
-(16.36)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(16.36)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13,143
-(8.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(8.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8,188
-(5.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(5.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>190
-(0.11)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13
-(0.00)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>99
-(0.06)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.06)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>35
-(0.02)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>103
-(0.06)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.06)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>33
-(0.02)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>91
-(0.05)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>159
-(0.09)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>163,370  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>757  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>45,754  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>강서구  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>88,518  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>68,633  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.09)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>163,370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>757</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45,754</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강서구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88,518</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,633</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>30,783
-(44.99)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(44.99)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>18,711
-(27.34)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(27.34)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10,629
-(15.53)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(15.53)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4,875
-(7.12)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(7.12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3,154
-(4.60)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(4.60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>64
-(0.09)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.09)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>34
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19
-(0.02)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>39
-(0.05)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>59
-(0.08)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>68,417  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>216  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>19,885  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>연제구  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>175,265  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>137,602  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.08)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,885</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연제구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175,265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137,602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>52,454
-(38.25)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(38.25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>44,221
-(32.25)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(32.25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23,321
-(17.00)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(17.00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9,900
-(7.22)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(7.22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6,745
-(4.91)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(4.91)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>130
-(0.09)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.09)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>59
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>53
-(0.03)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>55
-(0.04)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>105
-(0.07)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>137,105  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>497  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>37,663  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>수영구  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>154,637  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>119,064  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.07)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137,105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>497</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,663</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수영구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>154,637</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119,064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>43,702
-(36.82)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(36.82)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>39,832
-(33.56)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(33.56)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20,319
-(17.11)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(17.11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8,414
-(7.08)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(7.08)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5,952
-(5.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(5.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>171
-(0.14)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10
-(0.00)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>70
-(0.05)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>18
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>38
-(0.03)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>47
-(0.03)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>91
-(0.07)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>118,686  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>378  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>35,573  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>사상구  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>198,198  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>149,868  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.07)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118,686</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>378</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,573</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사상구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>198,198</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>149,868</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>61,743
-(41.38)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(41.38)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>46,540
-(31.19)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(31.19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23,023
-(15.43)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(15.43)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10,096
-(6.76)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(6.76)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7,156
-(4.79)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(4.79)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>125
-(0.08)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.08)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>109
-(0.07)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.07)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>28
-(0.01)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>75
-(0.05)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>46
-(0.03)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>52
-(0.03)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>168
-(0.11)  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>149,181  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>687  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
-  </si>
-  <si>
-    <t>48,330  </t>
-    <phoneticPr type="noConversion" fontId="1"/>
+(0.11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>149,181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>687</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48,330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1604,7 +1610,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="굴림체"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
@@ -1612,14 +1618,14 @@
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="굴림체"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="돋움"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1679,24 +1685,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1709,6 +1721,14 @@
       <color rgb="FFF8F8F8"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1755,7 +1775,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1787,9 +1807,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1821,6 +1859,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1995,1219 +2051,1222 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/Sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="173" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col cumstomWidth="1" width="7.08" max="1" min="1"/>
-    <col cumstomWidth="1" width="7.08" max="2" min="2"/>
-    <col cumstomWidth="1" width="7.08" max="3" min="3"/>
-    <col cumstomWidth="1" width="7.08" max="4" min="4"/>
-    <col cumstomWidth="1" width="7.08" max="5" min="5"/>
-    <col cumstomWidth="1" width="7.08" max="6" min="6"/>
-    <col cumstomWidth="1" width="7.08" max="7" min="7"/>
-    <col cumstomWidth="1" width="7.08" max="8" min="8"/>
-    <col cumstomWidth="1" width="7.08" max="9" min="9"/>
-    <col cumstomWidth="1" width="3.45" max="10" min="10"/>
-    <col cumstomWidth="1" width="3.63" max="11" min="11"/>
-    <col cumstomWidth="1" width="7.08" max="12" min="12"/>
-    <col cumstomWidth="1" width="7.08" max="13" min="13"/>
-    <col cumstomWidth="1" width="7.08" max="14" min="14"/>
-    <col cumstomWidth="1" width="7.08" max="15" min="15"/>
-    <col cumstomWidth="1" width="7.08" max="16" min="16"/>
-    <col cumstomWidth="1" width="7.08" max="17" min="17"/>
-    <col cumstomWidth="1" width="7.08" max="18" min="18"/>
-    <col cumstomWidth="1" width="7.08" max="19" min="19"/>
-    <col cumstomWidth="1" width="7.08" max="20" min="20"/>
-    <col cumstomWidth="1" width="1.04" max="21" min="21"/>
+    <col min="1" max="9" width="7"/>
+    <col min="10" max="10" width="3.5"/>
+    <col min="11" max="11" width="3.6640625"/>
+    <col min="12" max="20" width="7"/>
+    <col min="21" max="21" width="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" ht="20">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" ht="20" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
     </row>
-    <row r="2" customHeight="1" ht="36">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:21" ht="36" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
     </row>
-    <row r="3" customHeight="1" ht="20">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:21" ht="20" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
-    <row r="4" customHeight="1" ht="20">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:21" ht="20" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customHeight="1" ht="28">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="1:21" ht="28" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="6"/>
+      <c r="L5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
     </row>
-    <row r="6" customHeight="1" ht="20">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:21" ht="20" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="7"/>
+      <c r="L6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" customHeight="1" ht="20">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:21" ht="20" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" customHeight="1" ht="20">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:21" ht="20" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
+      <c r="K8" s="7"/>
+      <c r="L8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T8" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" customHeight="1" ht="20">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:21" ht="20" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
+      <c r="K9" s="7"/>
+      <c r="L9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" customHeight="1" ht="20">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:21" ht="20" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
+      <c r="K10" s="7"/>
+      <c r="L10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" customHeight="1" ht="20">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:21" ht="20" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
+      <c r="K11" s="7"/>
+      <c r="L11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" customHeight="1" ht="20">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:21" ht="20" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
+      <c r="K12" s="7"/>
+      <c r="L12" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" customHeight="1" ht="20">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:21" ht="20" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
+      <c r="K13" s="7"/>
+      <c r="L13" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="T13" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" customHeight="1" ht="20">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:21" ht="20" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
+      <c r="K14" s="7"/>
+      <c r="L14" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" customHeight="1" ht="20">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:21" ht="20" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
+      <c r="K15" s="7"/>
+      <c r="L15" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="16" customHeight="1" ht="20">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:21" ht="20" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5" t="s">
+      <c r="K16" s="7"/>
+      <c r="L16" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T16" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" customHeight="1" ht="20">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:20" ht="20" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5" t="s">
+      <c r="K17" s="7"/>
+      <c r="L17" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="T17" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="18" customHeight="1" ht="20">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:20" ht="20" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5" t="s">
+      <c r="K18" s="7"/>
+      <c r="L18" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="S18" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T18" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="19" customHeight="1" ht="20">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:20" ht="20" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5" t="s">
+      <c r="K19" s="7"/>
+      <c r="L19" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="T19" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="20" customHeight="1" ht="20">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:20" ht="20" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5" t="s">
+      <c r="K20" s="7"/>
+      <c r="L20" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="S20" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="T20" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="21" customHeight="1" ht="20">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:20" ht="20" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5" t="s">
+      <c r="K21" s="7"/>
+      <c r="L21" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="T21" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="22" customHeight="1" ht="20">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:20" ht="20" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5" t="s">
+      <c r="K22" s="7"/>
+      <c r="L22" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="S22" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="T22" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="23" customHeight="1" ht="20"/>
+    <row r="23" spans="1:20" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="A3:U3"/>
@@ -3218,26 +3277,9 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="0" scale="86" paperSize="9"/>
+  <pageSetup paperSize="9" scale="86" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
 </worksheet>
 </file>